--- a/求人情報一覧.xlsx
+++ b/求人情報一覧.xlsx
@@ -598,22 +598,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>プログラマ／もう1回教えて</t>
+          <t>プログラマ・SE／未経験者大歓迎</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>スタッフサービス・エンジニアリング</t>
+          <t>株式会社Vエイト</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>麹町駅</t>
+          <t>神保町駅</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>月給23万5,000円～55万円</t>
+          <t>月給19万円～70万円</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -632,22 +632,22 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>プログラマ・SE／未経験者大歓迎</t>
+          <t>プログラマ／もう1回教えて</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>株式会社Vエイト</t>
+          <t>スタッフサービス・エンジニアリング</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>神保町駅</t>
+          <t>東京都 新宿区 新宿</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>月給19万円～70万円</t>
+          <t>月給23万5,000円～55万円</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -767,22 +767,22 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>プログラマー・JAVA・未経験OK・9割が未経験スタート／賞与年2回／j</t>
+          <t>研修からスタート／年間休日120日／WEBプログラマー／練馬区</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>株式会社アーキコアテクノ</t>
+          <t>JHR株式会社</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>東京都 新宿区 新宿</t>
+          <t>東京都 練馬区</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>月給22万円～50万円</t>
+          <t>月給28万円～55万5,000円</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -794,22 +794,22 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>経験1年必須／システムエンジニア.プログラマー／残業20時間／海外出張有／英語力活かせる</t>
+          <t>「プログラマ」年休128日の土日祝休!テレワーク案件多数!残業ほぼなし</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>株式会社コンピュータムーブ</t>
+          <t>株式会社ベイソル</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>西新宿五丁目駅</t>
+          <t>横浜駅 徒歩8分</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>年収250万円～450万円</t>
+          <t>月給32万円～100万円</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -821,22 +821,22 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>経験1年必須／遊技機プログラマー／業界未経験者歓迎</t>
+          <t>経験1年必須／システムエンジニア.プログラマー／残業20時間／海外出張有／英語力活かせる</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>株式会社マトリックス</t>
+          <t>株式会社コンピュータムーブ</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>西武新宿駅 徒歩2分</t>
+          <t>西新宿五丁目駅</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>年収400万円～600万円</t>
+          <t>年収250万円～450万円</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -848,22 +848,22 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>「プログラマ」年休128日の土日祝休!テレワーク案件多数!残業ほぼなし</t>
+          <t>経験3年必須／SASプログラマー／統計解析～CRO&amp;Techの革新的な事業を展開～</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>株式会社ベイソル</t>
+          <t>株式会社セブントゥワン</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>横浜駅 徒歩8分</t>
+          <t>恵比寿駅</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>月給32万円～100万円</t>
+          <t>年収400万円～900万円</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -875,22 +875,22 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>経験1年必須／プログラマー／残業20時間程度／プライム案件80%／受託開発メイン／フルリモート可</t>
+          <t>プログラマー／340999</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>株式会社アースリンク</t>
+          <t>株式会社ミラクルソリューション</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>小田急永山駅</t>
+          <t>東京都 渋谷区 東</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>年収350万円～500万円</t>
+          <t>月給23万円～40万円</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -902,22 +902,23 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>経験3年必須／SASプログラマー／統計解析～CRO&amp;Techの革新的な事業を展開～</t>
+          <t>東証プライム上場／月給30万円／Java・C言語／プログラマー／経験浅い方でもOK／リモート</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>株式会社セブントゥワン</t>
+          <t>ベース株式会社</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>恵比寿駅</t>
+          <t>東京都 千代田区 外神田 / 秋葉原駅
+                     / 秋葉原UDX</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>年収400万円～900万円</t>
+          <t>年収350万450円</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -929,23 +930,22 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>東証プライム上場／月給30万円／Java・C言語／プログラマー／経験浅い方でもOK／リモート</t>
+          <t>経験1年必須／プログラマー／残業20時間程度／プライム案件80%／受託開発メイン／フルリモート可</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ベース株式会社</t>
+          <t>株式会社アースリンク</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>東京都 千代田区 外神田 / 秋葉原駅
-                     / 秋葉原UDX</t>
+          <t>小田急永山駅</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>年収350万450円</t>
+          <t>年収350万円～500万円</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -957,22 +957,22 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>プログラマー／340999</t>
+          <t>プログラマー／スポーツタイトル／東京</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>株式会社ミラクルソリューション</t>
+          <t>株式会社コナミデジタルエンタテインメント</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>東京都 渋谷区 東</t>
+          <t>銀座一丁目駅 徒歩2分</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>月給23万円～40万円</t>
+          <t>年収460万円～900万円</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -984,22 +984,22 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>経験1年必須／プログラマ／自社開発製品／病院の臨床検査システムの開発／要件定義から納品まで幅広く対応</t>
+          <t>経験1年必須／遊技機プログラマー／業界未経験者歓迎</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>株式会社テクノラボ</t>
+          <t>株式会社マトリックス</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>新高円寺駅</t>
+          <t>西武新宿駅 徒歩2分</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>年収400万円～650万円</t>
+          <t>年収400万円～600万円</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1038,22 +1038,22 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>ゲームプログラマ「フルリモート求人」</t>
+          <t>経験1年必須／プログラマ／自社開発製品／病院の臨床検査システムの開発／要件定義から納品まで幅広く対応</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>株式会社クロスゲームズ</t>
+          <t>株式会社テクノラボ</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>西新宿五丁目駅 徒歩5分</t>
+          <t>新高円寺駅</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>年収384万円～720万円</t>
+          <t>年収400万円～650万円</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1065,22 +1065,22 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>プログラマー／スポーツタイトル／東京</t>
+          <t>プログラマー</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>株式会社コナミデジタルエンタテインメント</t>
+          <t>シスコン株式会社</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>銀座一丁目駅 徒歩2分</t>
+          <t>上野駅 徒歩5分</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>年収460万円～900万円</t>
+          <t>年収400万円～600万円</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1092,22 +1092,22 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>プログラマ／336922</t>
+          <t>ゲームプログラマ「フルリモート求人」</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>シーシーエー株式会社</t>
+          <t>株式会社クロスゲームズ</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>東京都 大田区 山王</t>
+          <t>西新宿五丁目駅 徒歩5分</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>年収300万円～</t>
+          <t>年収384万円～720万円</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1119,22 +1119,22 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>プログラマー／PG／プログラマー 土日祝休み／土日祝休み</t>
+          <t>プログラマ／336922</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>株式会社Aces</t>
+          <t>シーシーエー株式会社</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>新宿駅</t>
+          <t>東京都 大田区 山王</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>月給22万円～40万円</t>
+          <t>年収300万円～</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1146,22 +1146,22 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>プログラマー／在宅OK</t>
+          <t>プログラマー／PG／プログラマー 土日祝休み／土日祝休み</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>株式会社One's</t>
+          <t>株式会社Aces</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>千葉駅</t>
+          <t>新宿駅</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>月給20万円～35万円</t>
+          <t>月給22万円～40万円</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1173,22 +1173,22 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>プログラマー／2025年5月7日更新</t>
+          <t>システムエンジニア／プログラマ／土日祝休み</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>株式会社アウトソーシングテクノロジー</t>
+          <t>株式会社ネットワークトゥエンティワン</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>東京都 千代田区 丸の内</t>
+          <t>東京都 新宿区</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>年収300万円～400万円</t>
+          <t>月給25万円～</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1200,22 +1200,22 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>システムエンジニア／プログラマ／土日祝休み</t>
+          <t>プログラマー／2025年5月7日更新</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>株式会社ネットワークトゥエンティワン</t>
+          <t>株式会社アウトソーシングテクノロジー</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>東京都 新宿区</t>
+          <t>東京都 千代田区 丸の内</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>月給25万円～</t>
+          <t>年収300万円～400万円</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1227,22 +1227,22 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>システムエンジニア／プログラマ／2025年5月7日更新</t>
+          <t>プログラマー／在宅OK</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>TDCフューテック株式会社</t>
+          <t>株式会社One's</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>東京都 中央区 東日本橋</t>
+          <t>千葉駅</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>年収358万円～381万円</t>
+          <t>月給20万円～35万円</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1254,22 +1254,22 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>プログラマー／2025年5月7日更新</t>
+          <t>システムエンジニア／プログラマ／2025年5月7日更新</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>株式会社ネットコムBB</t>
+          <t>TDCフューテック株式会社</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>東京都 中央区 銀座</t>
+          <t>東京都 中央区 東日本橋</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>年収400万円～800万円</t>
+          <t>年収358万円～381万円</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1281,22 +1281,22 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>ゲームプログラマ「クライアント・サーバサイド」／ゲーム・エンタメ</t>
+          <t>プログラマー／2025年5月7日更新</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>NHN PlayArt株式会社</t>
+          <t>株式会社ネットコムBB</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>虎ノ門ヒルズ駅 徒歩4分</t>
+          <t>東京都 中央区 銀座</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>年収450万円～1,000万円</t>
+          <t>年収400万円～800万円</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1308,22 +1308,22 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ゲームプログラマ／2025年5月7日更新</t>
+          <t>「正社員」R&amp;Dプログラマ:システム／ゲーム・エンタメ</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>株式会社グリモア</t>
+          <t>株式会社ゲームフリーク</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>東京都 目黒区 青葉台</t>
+          <t>神保町駅 徒歩5分</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>年収450万円～1,000万円</t>
+          <t>年収600万円～1,200万円</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1335,22 +1335,22 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>「正社員」R&amp;Dプログラマ:システム／ゲーム・エンタメ</t>
+          <t>エンジニア／プログラマ／2025年5月7日更新</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>株式会社ゲームフリーク</t>
+          <t>デロイトトーマツファイナンシャルアドバイザリー合同会社</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>神保町駅 徒歩5分</t>
+          <t>東京都 千代田区 丸の内</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>年収600万円～1,200万円</t>
+          <t>年収450万円～2,000万円</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1389,22 +1389,22 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>プログラマー／平均賞与3.5ヶ月!／プログラマー</t>
+          <t>ゲームプログラマ「クライアント・サーバサイド」／ゲーム・エンタメ</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>株式会社アスパーク</t>
+          <t>NHN PlayArt株式会社</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>東京都 新宿区</t>
+          <t>虎ノ門ヒルズ駅 徒歩4分</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>月給20万円～30万円</t>
+          <t>年収450万円～1,000万円</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1416,22 +1416,22 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>ゲーム開発プログラマー／ゲーム・エンタメ</t>
+          <t>プログラマー／2026年3月卒業者向け 新卒募集</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>株式会社エイティング</t>
+          <t>株式会社ヴァンガードテクノロジー</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>大森駅 徒歩5分</t>
+          <t>東京都 新宿区 西新宿</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>年収400万円～700万円</t>
+          <t>月給20万円～24万円</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1443,22 +1443,22 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>プログラマー／ゲーム・エンタメ</t>
+          <t>ゲーム開発プログラマー／ゲーム・エンタメ</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>株式会社Studio Oops</t>
+          <t>株式会社エイティング</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>東京都 世田谷区 松原</t>
+          <t>大森駅 徒歩5分</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>年収420万円～700万円</t>
+          <t>年収400万円～700万円</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1470,22 +1470,22 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>プログラマー／2026年3月卒業者向け 新卒募集</t>
+          <t>プログラマー／ゲーム・エンタメ</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>株式会社ヴァンガードテクノロジー</t>
+          <t>株式会社Studio Oops</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>東京都 新宿区 西新宿</t>
+          <t>東京都 世田谷区 松原</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>月給20万円～24万円</t>
+          <t>年収420万円～700万円</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1497,22 +1497,22 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>ゲームプログラマー／Unity／ゲーム・エンタメ</t>
+          <t>プログラマー／平均賞与3.5ヶ月!／プログラマー</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>株式会社コロプラ</t>
+          <t>株式会社アスパーク</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>六本木駅</t>
+          <t>東京都 新宿区</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>年収466万円～991万円</t>
+          <t>月給20万円～30万円</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1524,22 +1524,22 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>「東京」コンシューマゲーム ゲームプログラマー／ゲーム・エンタメ</t>
+          <t>ゲームプログラマー／Unity／ゲーム・エンタメ</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>株式会社SNK</t>
+          <t>株式会社コロプラ</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>目黒駅 徒歩3分</t>
+          <t>六本木駅</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>年収522万円～1,360万円</t>
+          <t>年収466万円～991万円</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1551,22 +1551,22 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>プログラマー</t>
+          <t>「東京」コンシューマゲーム ゲームプログラマー／ゲーム・エンタメ</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>シスコン株式会社</t>
+          <t>株式会社SNK</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>上野駅 徒歩5分</t>
+          <t>目黒駅 徒歩3分</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>年収400万円～600万円</t>
+          <t>年収522万円～1,360万円</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1578,7 +1578,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>ITエンジニア／東京都中央区／ITプログラマー</t>
+          <t>ITエンジニア／東京都台東区／ITプログラマー</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1588,7 +1588,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>東京都 中央区</t>
+          <t>東京都 台東区</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1605,20 +1605,24 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>プログラマー／スポーツタイトル</t>
+          <t>システムエンジニア／プログラマ・SE募集 土日祝休み</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>コナミデジタルエンタテインメント</t>
+          <t>株式会社クレール情報</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>東京都 中央区</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr"/>
+          <t>竹橋駅</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>月給25万円～45万円</t>
+        </is>
+      </c>
       <c r="E45" t="inlineStr">
         <is>
           <t>正社員</t>
@@ -1628,24 +1632,20 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>システムエンジニア／プログラマ・SE募集 土日祝休み</t>
+          <t>プログラマー／スポーツタイトル</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>株式会社クレール情報</t>
+          <t>コナミデジタルエンタテインメント</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>竹橋駅</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>月給25万円～45万円</t>
-        </is>
-      </c>
+          <t>東京都 中央区</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
         <is>
           <t>正社員</t>
@@ -1682,22 +1682,22 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>プログラマー／年休120日以上／平均残業20H以下</t>
+          <t>プログラマ／経験者大募集! 東京／勤務プログラマ／土日祝休み</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>関東スターワークス株式会社 品川オフィス</t>
+          <t>株式会社シード</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>東京都 港区</t>
+          <t>神田駅</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>月給37万5,000円～45万円</t>
+          <t>月給19万3,000円～25万7,000円</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -1709,22 +1709,22 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>UIプログラマー／ゲーム・エンタメ</t>
+          <t>プログラマー／年休120日以上／平均残業20H以下</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Tango Gameworks株式会社</t>
+          <t>関東スターワークス株式会社 品川オフィス</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>田町駅 徒歩7分</t>
+          <t>東京都 港区</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>年収400万円～</t>
+          <t>月給37万5,000円～45万円</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -1759,22 +1759,22 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>プログラマー／ゲーム・エンタメ</t>
+          <t>シニアアプリケーションプログラマー／ゲーム・エンタメ</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>株式会社カイロソフト</t>
+          <t>Tango Gameworks株式会社</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>都庁前駅 徒歩5分</t>
+          <t>田町駅 徒歩7分</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>年収300万円～700万円</t>
+          <t>年収700万円～</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
